--- a/Assets/SceneData/MasterData/Editor/SkillData.xlsx
+++ b/Assets/SceneData/MasterData/Editor/SkillData.xlsx
@@ -4,7 +4,9 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="シート2" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="シート1" sheetId="2" r:id="rId4"/>
+    <sheet state="visible" name="シート3" sheetId="2" r:id="rId4"/>
+    <sheet state="visible" name="UserSkillData" sheetId="3" r:id="rId5"/>
+    <sheet state="visible" name="EnemySkillData" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,118 +14,451 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="148">
+  <si>
+    <t>スキル案（書式は自由)</t>
+  </si>
+  <si>
+    <t>実装検討状態</t>
+  </si>
+  <si>
+    <t>常時ストレート確率アップ１％</t>
+  </si>
+  <si>
+    <t>実装可能</t>
+  </si>
+  <si>
+    <t>倍率</t>
+  </si>
+  <si>
+    <t>常時ストレート確率アップ２％</t>
+  </si>
+  <si>
+    <t>ワンペア</t>
+  </si>
+  <si>
+    <t>１</t>
+  </si>
+  <si>
+    <t>常時ストレート確率アップ４％</t>
+  </si>
+  <si>
+    <t>ツーペア</t>
+  </si>
+  <si>
+    <t>常時ストレート確率アップ８％</t>
+  </si>
+  <si>
+    <t>スリーカード</t>
+  </si>
+  <si>
+    <t>３</t>
+  </si>
+  <si>
+    <t>常時ストレート確率アップ10％</t>
+  </si>
+  <si>
+    <t>ストレート</t>
+  </si>
+  <si>
+    <t>５</t>
+  </si>
+  <si>
+    <t>常時フラッシュ確率アップ１％</t>
+  </si>
+  <si>
+    <t>フラッシュ</t>
+  </si>
+  <si>
+    <t>７</t>
+  </si>
+  <si>
+    <t>常時フラッシュ確率アップ２％</t>
+  </si>
+  <si>
+    <t>フルハウス</t>
+  </si>
+  <si>
+    <t>１０</t>
+  </si>
+  <si>
+    <t>常時フラッシュ確率アップ４％</t>
+  </si>
+  <si>
+    <t>フォーカード</t>
+  </si>
+  <si>
+    <t>２０</t>
+  </si>
+  <si>
+    <t>常時フラッシュ確率アップ８％</t>
+  </si>
+  <si>
+    <t>ストレートフラッシュ</t>
+  </si>
+  <si>
+    <t>５０</t>
+  </si>
+  <si>
+    <t>常時フラッシュ確率アップ10％</t>
+  </si>
+  <si>
+    <t>ロイスト</t>
+  </si>
+  <si>
+    <t>１００</t>
+  </si>
+  <si>
+    <t>常時フルハウス確率アップ１％</t>
+  </si>
+  <si>
+    <t>常時フルハウス確率アップ２％</t>
+  </si>
+  <si>
+    <t>常時フルハウス確率アップ３％</t>
+  </si>
+  <si>
+    <t>常時フルハウス確率アップ４％</t>
+  </si>
+  <si>
+    <t>常時フルハウス確率アップ５％</t>
+  </si>
+  <si>
+    <t>常時フォーカード確率アップ１％</t>
+  </si>
+  <si>
+    <t>常時フォーカード確率アップ２％</t>
+  </si>
+  <si>
+    <t>常時フォーカード確率アップ３％</t>
+  </si>
+  <si>
+    <t>常時フォーカード確率アップ４％</t>
+  </si>
+  <si>
+    <t>常時ストレートフラッシュ確率アップ１％</t>
+  </si>
+  <si>
+    <t>常時ストレートフラッシュ確率アップ２％</t>
+  </si>
+  <si>
+    <t>常時ストレートフラッシュ確率アップ３％</t>
+  </si>
+  <si>
+    <t>常時ロイヤルストレートフラッシュ確率アップ１％</t>
+  </si>
+  <si>
+    <t>常時ロイヤルストレートフラッシュ確率アップ２％</t>
+  </si>
+  <si>
+    <t>ストレート確率アップ１０％（継続２ターン目から使用可能）</t>
+  </si>
+  <si>
+    <t>ストレート確率アップ２０％（継続３ターン目から使用可能）</t>
+  </si>
+  <si>
+    <t>スキルタイプ</t>
+  </si>
+  <si>
+    <t>役名</t>
+  </si>
+  <si>
+    <t>敵スキルタイプ</t>
+  </si>
   <si>
     <t>スキルID</t>
   </si>
   <si>
-    <t>スキルタイプ</t>
-  </si>
-  <si>
     <t>スキル名</t>
   </si>
   <si>
-    <t>スキル詳細</t>
-  </si>
-  <si>
     <t>説明文</t>
   </si>
   <si>
-    <t>補足</t>
-  </si>
-  <si>
-    <t>マーク</t>
-  </si>
-  <si>
     <t>スキル形式</t>
   </si>
   <si>
-    <t>書き方
-スキルタイプは引く系はDraw選択、それ以外はRaise選択
-スキル詳細はそのまま効果、詳細を数値やマークの欄に書く</t>
-  </si>
-  <si>
-    <t>Draw</t>
-  </si>
-  <si>
-    <t>FixedNumber</t>
-  </si>
-  <si>
-    <t>数値</t>
-  </si>
-  <si>
-    <t>固定値引き　数値が引ける番号になる</t>
-  </si>
-  <si>
-    <t>Heart</t>
-  </si>
-  <si>
-    <t>Raise</t>
-  </si>
-  <si>
-    <t>FixedMark</t>
+    <t>効果量</t>
+  </si>
+  <si>
+    <t>クールタイム</t>
   </si>
   <si>
     <t>s00001</t>
   </si>
   <si>
-    <t>固定マーク引き マークが引けるマークになる</t>
-  </si>
-  <si>
-    <t>確定1引き</t>
-  </si>
-  <si>
-    <t>Spade</t>
-  </si>
-  <si>
-    <t>スキルを使うと1枚しか交換できなくなるが、確定で1の数値のトランプを引ける。
-*ただし該当するトランプが存在しない場合は効果を発揮しない。</t>
+    <t>オーダタイプ</t>
+  </si>
+  <si>
+    <t>カラータイプ</t>
+  </si>
+  <si>
+    <t>Passive</t>
+  </si>
+  <si>
+    <t>パッシブ</t>
+  </si>
+  <si>
+    <t>NoPair</t>
+  </si>
+  <si>
+    <t>SealSkill</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>ProbabilityUp</t>
+  </si>
+  <si>
+    <t>確率アップ</t>
+  </si>
+  <si>
+    <t>OnePair</t>
+  </si>
+  <si>
+    <t>Skiller</t>
+  </si>
+  <si>
+    <t>Hand</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>配布時ストレート確率1%アップ</t>
+  </si>
+  <si>
+    <t>Bet</t>
+  </si>
+  <si>
+    <t>追加賭け</t>
+  </si>
+  <si>
+    <t>配布時にストレートが成立している可能性が1%upする</t>
+  </si>
+  <si>
+    <t>TwoPair</t>
+  </si>
+  <si>
+    <t>FourceContinue</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>AllBet</t>
+  </si>
+  <si>
+    <t>全て賭け(AllChange</t>
+  </si>
+  <si>
+    <t>ThreeCard</t>
+  </si>
+  <si>
+    <t>ForuceAllChange</t>
+  </si>
+  <si>
+    <t>Magnification</t>
+  </si>
+  <si>
+    <t>倍率up</t>
+  </si>
+  <si>
+    <t>Straight</t>
   </si>
   <si>
     <t>Order</t>
   </si>
   <si>
-    <t>AllChangeOnePair</t>
-  </si>
-  <si>
-    <t>全交換　ワンペア確定</t>
-  </si>
-  <si>
-    <t>Dia</t>
-  </si>
-  <si>
-    <t>AllChangeTwoPair</t>
-  </si>
-  <si>
-    <t>全交換つーぺあ確定</t>
-  </si>
-  <si>
-    <t>Clover</t>
-  </si>
-  <si>
-    <t>AllChangeFlush</t>
-  </si>
-  <si>
-    <t>全交換フラッシュ確定</t>
-  </si>
-  <si>
-    <t>レイズスキル　数値がかける値</t>
-  </si>
-  <si>
-    <t>ForceRaise</t>
-  </si>
-  <si>
-    <t>強制レイズスキル　数値がかける値</t>
+    <t>Flush</t>
+  </si>
+  <si>
+    <t>FullHouse</t>
+  </si>
+  <si>
+    <t>FourCard</t>
+  </si>
+  <si>
+    <t>ストレート確率アップ３０％（継続４ターン目から使用可能）</t>
+  </si>
+  <si>
+    <t>StraightFlush</t>
+  </si>
+  <si>
+    <t>RoyalStraightFlush</t>
+  </si>
+  <si>
+    <t>ストレート確率アップ４０％（継続５ターン目から使用可能）</t>
+  </si>
+  <si>
+    <t>ストレート確率アップ５０％（継続６ターン目から使用可能）</t>
+  </si>
+  <si>
+    <t>フラッシュ確率アップ１０％（継続３ターン目から使用可能）</t>
+  </si>
+  <si>
+    <t>フラッシュ確率アップ２０％（継続４ターン目から使用可能）</t>
+  </si>
+  <si>
+    <t>フラッシュ確率アップ３０％（継続５ターン目から使用可能）</t>
+  </si>
+  <si>
+    <t>フラッシュ確率アップ４０％（継続６ターン目から使用可能）</t>
+  </si>
+  <si>
+    <t>フラッシュ確率アップ５０％（継続７ターン目から使用可能）</t>
+  </si>
+  <si>
+    <t>フルハウス確率アップ１０％（継続４ターン目から使用可能）</t>
+  </si>
+  <si>
+    <t>フルハウス確率アップ２０％（継続５ターン目から使用可能）</t>
+  </si>
+  <si>
+    <t>フルハウス確率アップ３０％（継続６ターン目から使用可能）</t>
+  </si>
+  <si>
+    <t>フルハウス確率アップ４０％（継続７ターン目から使用可能）</t>
+  </si>
+  <si>
+    <t>フルハウス確率アップ４５％（継続８ターン目から使用可能）</t>
+  </si>
+  <si>
+    <t>フォーカード確率アップ１０％（継続５ターン目から使用可能）</t>
+  </si>
+  <si>
+    <t>フォーカード確率アップ１５％（継続６ターン目から使用可能）</t>
+  </si>
+  <si>
+    <t>フォーカード確率アップ２０％（継続７ターン目から使用可能）</t>
+  </si>
+  <si>
+    <t>フォーカード確率アップ２５％（継続８ターン目から使用可能）</t>
+  </si>
+  <si>
+    <t>フォーカード確率アップ３０％（継続９ターン目から使用可能）</t>
   </si>
   <si>
     <t>s00002</t>
   </si>
   <si>
-    <t>確定2引き</t>
-  </si>
-  <si>
-    <t>スキルを使うと1枚しか交換できなくなるが、確定で2の数値のトランプを引ける。
-*ただし該当するトランプが存在しない場合は効果を発揮しない。</t>
+    <t>AllChangeストレート確率10%アップ</t>
+  </si>
+  <si>
+    <t>ストレートフラッシュ確率アップ１０％（継続６ターン目から使用可能）</t>
+  </si>
+  <si>
+    <t>ストレートフラッシュ確率アップ１２％（継続７ターン目から使用可能）</t>
+  </si>
+  <si>
+    <t>強制的にすべてチェンジするが、ストレートが成立する確率が10%上がる</t>
+  </si>
+  <si>
+    <t>ストレートフラッシュ確率アップ１４％（継続８ターン目から使用可能）</t>
+  </si>
+  <si>
+    <t>ストレートフラッシュ確率アップ１６％（継続９ターン目から使用可能）</t>
+  </si>
+  <si>
+    <t>ストレートフラッシュ確率アップ２０％（継続１０ターン目から使用可能）</t>
+  </si>
+  <si>
+    <t>Bet系</t>
+  </si>
+  <si>
+    <t>追加１００コイン（任意タイミング）</t>
+  </si>
+  <si>
+    <t>追加５００コイン（任意タイミング）</t>
+  </si>
+  <si>
+    <t>追加１０００コイン（任意タイミング）</t>
+  </si>
+  <si>
+    <t>全額ベット（任意：使用後強制オールチェンジ）</t>
+  </si>
+  <si>
+    <t>倍率系</t>
+  </si>
+  <si>
+    <t>倍率２倍（継続２ターン目から使用可能：一回のみ倍率が２倍：強制オールチェンジ）</t>
+  </si>
+  <si>
+    <t>倍率３倍（継続４ターン目から使用可能：一回のみ倍率が３倍：強制オールチェンジ）</t>
+  </si>
+  <si>
+    <t>倍率４倍（継続６ターン目から使用可能：一回のみ倍率が４倍：強制オールチェンジ）</t>
+  </si>
+  <si>
+    <t>倍率５倍（継続１０ターン目から使用可能：1回のみ倍率が５倍：強制オールチェンジ）</t>
+  </si>
+  <si>
+    <t>ディーラースキル</t>
+  </si>
+  <si>
+    <t>パッシブスキル封じ（そのターン、プレイヤーのパッシブスキル使用不可）</t>
+  </si>
+  <si>
+    <t>＊フローの変更が必要</t>
+  </si>
+  <si>
+    <t>倍率封じ（そのターン、プレイヤーの倍率を操作するスキルが使用不可）</t>
+  </si>
+  <si>
+    <t>スキル封じ（そのターン、プレイヤーのスキルが使用不可）</t>
+  </si>
+  <si>
+    <t>７Killer（７のカードを全排除）</t>
+  </si>
+  <si>
+    <t>DownKiller(次のターン、プレイヤーは降りられなくなる：強制継続）</t>
+  </si>
+  <si>
+    <t>強制オールチェンジ（使用ターン、倍率が1.5倍）</t>
+  </si>
+  <si>
+    <t>カラーオーダー（指定された色が含まれた状態でプレイヤーが上がると倍率が1.5倍）</t>
+  </si>
+  <si>
+    <t>役オーダー（指定された役でプレイヤーが上がると倍率が２倍）</t>
+  </si>
+  <si>
+    <t>オーダー（指定された役と色でプレイヤーが上がると倍率５倍：上がれなければ倍率0.5倍
+：可能であればユーザーが受けるかどうかの任意ダイアログ選択）</t>
+  </si>
+  <si>
+    <t>ボーナス値</t>
+  </si>
+  <si>
+    <t>オーダータイプ</t>
+  </si>
+  <si>
+    <t>役タイプ</t>
+  </si>
+  <si>
+    <t>対象スキル</t>
+  </si>
+  <si>
+    <t>es00001</t>
+  </si>
+  <si>
+    <t>パッシブスキル封じ</t>
+  </si>
+  <si>
+    <t>発動したターンだけパッシブ効果が無効になる</t>
+  </si>
+  <si>
+    <t>es00002</t>
+  </si>
+  <si>
+    <t>倍率スキル封じ</t>
+  </si>
+  <si>
+    <t>発動したターンだけ倍率系スキルが使えなくなる</t>
   </si>
 </sst>
 </file>
@@ -180,6 +515,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
@@ -189,101 +532,139 @@
   <cols>
     <col customWidth="1" min="2" max="2" width="43.71"/>
     <col customWidth="1" min="3" max="3" width="58.43"/>
+    <col customWidth="1" min="4" max="4" width="26.0"/>
+    <col customWidth="1" min="5" max="5" width="25.29"/>
     <col customWidth="1" min="6" max="6" width="38.71"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>68</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>76</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>84</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -298,83 +679,835 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="76.0"/>
+    <col customWidth="1" min="4" max="4" width="20.57"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
     <col customWidth="1" min="2" max="2" width="44.29"/>
     <col customWidth="1" min="3" max="3" width="85.86"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>59</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.0</v>
       </c>
       <c r="F2" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>65</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10.0</v>
       </c>
       <c r="F3" s="1">
         <v>2.0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" sqref="D2:D1000">
+      <formula1>'シート2'!$A$2:$A$29</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="G2:G1000">
+      <formula1>'シート2'!$C$2:$C$26</formula1>
+    </dataValidation>
+  </dataValidations>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="38.0"/>
+    <col customWidth="1" min="3" max="3" width="57.71"/>
+    <col customWidth="1" min="4" max="4" width="29.29"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" sqref="G2:G1000">
-      <formula1>'シート2'!$D$2:$D$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D1000">
-      <formula1>'シート2'!$A$2:$A$3</formula1>
+      <formula1>'シート2'!$F$2:$F$10</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="E2:E1000">
-      <formula1>'シート2'!$B$2:$B$31</formula1>
+      <formula1>'シート2'!$D$2:$D$14</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="H2:H1000">
+      <formula1>'シート2'!$C$2:$C$13</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F2:F1000">
+      <formula1>'シート2'!$E$2:$E$9</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="I2:I1000">
+      <formula1>'シート2'!$A$2:$A$22</formula1>
     </dataValidation>
   </dataValidations>
   <drawing r:id="rId1"/>

--- a/Assets/SceneData/MasterData/Editor/SkillData.xlsx
+++ b/Assets/SceneData/MasterData/Editor/SkillData.xlsx
@@ -5,13 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="シート2" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="シート3" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="UserSkillData" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="EnemySkillData" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="EnemySkillData" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="UserSkillData" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="183">
   <si>
     <t xml:space="preserve">スキルタイプ</t>
   </si>
@@ -67,7 +67,7 @@
     <t xml:space="preserve">OnePair</t>
   </si>
   <si>
-    <t xml:space="preserve">Skiller</t>
+    <t xml:space="preserve">Killer</t>
   </si>
   <si>
     <t xml:space="preserve">Hand</t>
@@ -85,7 +85,7 @@
     <t xml:space="preserve">TwoPair</t>
   </si>
   <si>
-    <t xml:space="preserve">FourceContinue</t>
+    <t xml:space="preserve">ForceContinue</t>
   </si>
   <si>
     <t xml:space="preserve">All</t>
@@ -117,7 +117,7 @@
     <t xml:space="preserve">ThreeCard</t>
   </si>
   <si>
-    <t xml:space="preserve">ForuceAllChange</t>
+    <t xml:space="preserve">ForceAllChange</t>
   </si>
   <si>
     <t xml:space="preserve">Magnification</t>
@@ -196,6 +196,12 @@
     <t xml:space="preserve">倍率</t>
   </si>
   <si>
+    <t xml:space="preserve">回数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">継続倍率</t>
+  </si>
+  <si>
     <t xml:space="preserve">常時ストレート確率アップ２％</t>
   </si>
   <si>
@@ -217,17 +223,88 @@
     <t xml:space="preserve">スリーカード</t>
   </si>
   <si>
+    <t xml:space="preserve">２</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">常時ストレート確率アップ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">％</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ストレート</t>
+  </si>
+  <si>
     <t xml:space="preserve">３</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">常時ストレート確率アップ</t>
+    <t xml:space="preserve">常時フラッシュ確率アップ１％</t>
+  </si>
+  <si>
+    <t xml:space="preserve">フラッシュ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">４</t>
+  </si>
+  <si>
+    <t xml:space="preserve">常時フラッシュ確率アップ２％</t>
+  </si>
+  <si>
+    <t xml:space="preserve">フルハウス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">７</t>
+  </si>
+  <si>
+    <t xml:space="preserve">常時フラッシュ確率アップ４％</t>
+  </si>
+  <si>
+    <t xml:space="preserve">フォーカード</t>
+  </si>
+  <si>
+    <t xml:space="preserve">１０</t>
+  </si>
+  <si>
+    <t xml:space="preserve">常時フラッシュ確率アップ８％</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ストレートフラッシュ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">２５</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">常時フラッシュ確率アップ</t>
     </r>
     <r>
       <rPr>
@@ -249,81 +326,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">ストレート</t>
-  </si>
-  <si>
-    <t xml:space="preserve">５</t>
-  </si>
-  <si>
-    <t xml:space="preserve">常時フラッシュ確率アップ１％</t>
-  </si>
-  <si>
-    <t xml:space="preserve">フラッシュ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">７</t>
-  </si>
-  <si>
-    <t xml:space="preserve">常時フラッシュ確率アップ２％</t>
-  </si>
-  <si>
-    <t xml:space="preserve">フルハウス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">１０</t>
-  </si>
-  <si>
-    <t xml:space="preserve">常時フラッシュ確率アップ４％</t>
-  </si>
-  <si>
-    <t xml:space="preserve">フォーカード</t>
-  </si>
-  <si>
-    <t xml:space="preserve">２０</t>
-  </si>
-  <si>
-    <t xml:space="preserve">常時フラッシュ確率アップ８％</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレートフラッシュ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">５０</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">常時フラッシュ確率アップ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">％</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">ロイスト</t>
   </si>
   <si>
-    <t xml:space="preserve">１００</t>
+    <t xml:space="preserve">５００</t>
   </si>
   <si>
     <t xml:space="preserve">常時フルハウス確率アップ１％</t>
@@ -362,10 +368,16 @@
     <t xml:space="preserve">常時ストレートフラッシュ確率アップ３％</t>
   </si>
   <si>
+    <t xml:space="preserve">以降</t>
+  </si>
+  <si>
     <t xml:space="preserve">常時ロイヤルストレートフラッシュ確率アップ１％</t>
   </si>
   <si>
     <t xml:space="preserve">常時ロイヤルストレートフラッシュ確率アップ２％</t>
+  </si>
+  <si>
+    <t xml:space="preserve">常時ワンペア継続</t>
   </si>
   <si>
     <t xml:space="preserve">ストレート確率アップ１０％（継続２ターン目から使用可能）</t>
@@ -697,6 +709,409 @@
     <t xml:space="preserve">説明文</t>
   </si>
   <si>
+    <t xml:space="preserve">ボーナス値</t>
+  </si>
+  <si>
+    <t xml:space="preserve">オーダータイプ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">役タイプ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">対象スキル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">es00001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">パッシブスキル封じ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">このターンだけパッシブスキルが無効化</t>
+  </si>
+  <si>
+    <t xml:space="preserve">es00002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">倍率スキル封じ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">このターンだけ倍率スキルが使用不可</t>
+  </si>
+  <si>
+    <t xml:space="preserve">es00003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">確率アップスキル封じ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">このターンだけ確率アップスキルが使用不可</t>
+  </si>
+  <si>
+    <t xml:space="preserve">es00004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7Killer</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">のトランプがすべて排除される</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">es00005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DownKiller</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">継続強制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">!</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">es00006</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">強制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">AllChange</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">強制的に全てチェンジされる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">倍率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">倍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">es00007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">カラーオーダー 黒</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">黒を含むトランプで役を作れば倍率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">倍</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">es00008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">カラーオーダー 赤</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">赤を含むトランプで役を作れば倍率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">倍</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">es00009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">役オーダー</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ツーペアで役を作れば倍率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">倍</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">es00010</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">スリーカードで役を作れば倍率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">倍</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">es00011</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ストレートで役を作れば倍率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">倍</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">es00012</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">フラッシュで役を作れば倍率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">倍</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">es00013</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">フルハウスで役を作れば倍率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">倍</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">スキル形式</t>
   </si>
   <si>
@@ -716,7 +1131,77 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">配布時フラッシュ確率</t>
+      <t xml:space="preserve">配布時ストレート確率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">アップ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">配布時にストレートが成立している可能性が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1%up</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">する</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">s00002</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">AllChange</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ストレート確率</t>
     </r>
     <r>
       <rPr>
@@ -745,86 +1230,16 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">配布時にフラッシュが成立している可能性が</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">10%up</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">する</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">s00002</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">AllChange</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">ストレート確率3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">0%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">アップ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">強制的にすべてチェンジするが、ストレートが成立する確率が3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">0%</t>
+      <t xml:space="preserve">強制的にすべてチェンジするが、ストレートが成立する確率が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">10%</t>
     </r>
     <r>
       <rPr>
@@ -840,94 +1255,7 @@
     <t xml:space="preserve">s00003</t>
   </si>
   <si>
-    <t xml:space="preserve">AllChangeストレート確率40%アップ</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">強制的にすべてチェンジするが、ストレートが成立する確率が4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">0%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">上がる</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">ボーナス値</t>
-  </si>
-  <si>
-    <t xml:space="preserve">オーダータイプ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">役タイプ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">対象スキル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">es00001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">パッシブスキル封じ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">発動したターンだけパッシブ効果が無効になる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">es00002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">倍率スキル封じ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">発動したターンだけ倍率系スキルが使えなくなる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">es00003</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">強制</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">AllChange</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">強制的にすべてチェンジ</t>
+    <t xml:space="preserve">test</t>
   </si>
 </sst>
 </file>
@@ -937,7 +1265,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -977,27 +1305,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Cambria"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1042,7 +1351,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1060,14 +1369,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1091,7 +1392,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1251,10 +1552,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1283,232 +1584,364 @@
       <c r="E2" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>42</v>
+      <c r="F4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>1.4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>1.6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>1.8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>2.2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>2.4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>2.6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>3.6</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>3.8</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>38</v>
@@ -1516,7 +1949,7 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>38</v>
@@ -1524,15 +1957,13 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>38</v>
@@ -1540,7 +1971,7 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>38</v>
@@ -1548,7 +1979,7 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>38</v>
@@ -1556,7 +1987,7 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>38</v>
@@ -1564,7 +1995,7 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>38</v>
@@ -1572,7 +2003,7 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>38</v>
@@ -1580,7 +2011,7 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>38</v>
@@ -1588,7 +2019,7 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>38</v>
@@ -1596,7 +2027,7 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>38</v>
@@ -1604,7 +2035,7 @@
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>38</v>
@@ -1612,7 +2043,7 @@
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>38</v>
@@ -1620,7 +2051,7 @@
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>38</v>
@@ -1628,7 +2059,7 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>38</v>
@@ -1636,7 +2067,7 @@
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>38</v>
@@ -1644,7 +2075,7 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>38</v>
@@ -1652,7 +2083,7 @@
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>38</v>
@@ -1660,7 +2091,7 @@
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>38</v>
@@ -1668,7 +2099,7 @@
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>38</v>
@@ -1676,7 +2107,7 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>38</v>
@@ -1684,7 +2115,7 @@
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>38</v>
@@ -1692,7 +2123,7 @@
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>38</v>
@@ -1700,7 +2131,7 @@
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>38</v>
@@ -1708,7 +2139,7 @@
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>38</v>
@@ -1716,28 +2147,28 @@
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="s">
-        <v>105</v>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>38</v>
+      <c r="A53" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>38</v>
@@ -1745,7 +2176,7 @@
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>38</v>
@@ -1753,25 +2184,25 @@
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>38</v>
@@ -1779,7 +2210,7 @@
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>38</v>
@@ -1787,39 +2218,39 @@
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="s">
-        <v>115</v>
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>38</v>
@@ -1827,26 +2258,26 @@
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>117</v>
-      </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="s">
-        <v>122</v>
+      <c r="A70" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>38</v>
@@ -1854,7 +2285,7 @@
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>38</v>
@@ -1862,17 +2293,25 @@
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="3" t="s">
-        <v>125</v>
+      <c r="A73" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1892,9 +2331,364 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.2897727272727"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="69.7556818181818"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.3295454545455"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="17.2897727272727"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="5">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="G2:G14" type="list">
+      <formula1>シート2!$F$2:$F$10</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E2:E14" type="list">
+      <formula1>シート2!$D$2:$D$14</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="H2:H14" type="list">
+      <formula1>シート2!$C$2:$C$13</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F2:F14" type="list">
+      <formula1>シート2!$E$2:$E$9</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="I2:I14" type="list">
+      <formula1>シート2!$A$2:$A$22</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -1908,94 +2702,91 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>137</v>
+        <v>180</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>138</v>
+        <v>181</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
+        <v>182</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2017,159 +2808,4 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.2897727272727"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="69.7556818181818"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.3295454545455"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="17.2897727272727"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="5">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="G2:G4" type="list">
-      <formula1>シート2!$F$2:$F$10</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E2:E4" type="list">
-      <formula1>シート2!$D$2:$D$14</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="H2:H4" type="list">
-      <formula1>シート2!$C$2:$C$13</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F2:F4" type="list">
-      <formula1>シート2!$E$2:$E$9</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="I2:I4" type="list">
-      <formula1>シート2!$A$2:$A$22</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
 </file>
--- a/Assets/SceneData/MasterData/Editor/SkillData.xlsx
+++ b/Assets/SceneData/MasterData/Editor/SkillData.xlsx
@@ -22,207 +22,207 @@
     <t>役名</t>
   </si>
   <si>
+    <t>敵スキルタイプ</t>
+  </si>
+  <si>
+    <t>オーダタイプ</t>
+  </si>
+  <si>
+    <t>カラータイプ</t>
+  </si>
+  <si>
+    <t>Passive</t>
+  </si>
+  <si>
+    <t>パッシブ</t>
+  </si>
+  <si>
+    <t>NoPair</t>
+  </si>
+  <si>
+    <t>SealSkill</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>ProbabilityUp</t>
+  </si>
+  <si>
+    <t>確率アップ</t>
+  </si>
+  <si>
+    <t>OnePair</t>
+  </si>
+  <si>
+    <t>Killer</t>
+  </si>
+  <si>
+    <t>Hand</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Bet</t>
+  </si>
+  <si>
+    <t>追加賭け</t>
+  </si>
+  <si>
+    <t>TwoPair</t>
+  </si>
+  <si>
+    <t>ForceContinue</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>AllBet</t>
+  </si>
+  <si>
+    <t>全て賭け(AllChange</t>
+  </si>
+  <si>
+    <t>ThreeCard</t>
+  </si>
+  <si>
+    <t>ForceAllChange</t>
+  </si>
+  <si>
+    <t>Magnification</t>
+  </si>
+  <si>
+    <t>スキルID</t>
+  </si>
+  <si>
+    <t>倍率up</t>
+  </si>
+  <si>
+    <t>Straight</t>
+  </si>
+  <si>
     <t>スキル案（書式は自由)</t>
   </si>
   <si>
-    <t>スキルID</t>
-  </si>
-  <si>
-    <t>敵スキルタイプ</t>
+    <t>スキル名</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>説明文</t>
   </si>
   <si>
     <t>実装検討状態</t>
   </si>
   <si>
-    <t>オーダタイプ</t>
-  </si>
-  <si>
-    <t>カラータイプ</t>
-  </si>
-  <si>
-    <t>スキル名</t>
-  </si>
-  <si>
-    <t>説明文</t>
+    <t>ボーナス値</t>
+  </si>
+  <si>
+    <t>Flush</t>
+  </si>
+  <si>
+    <t>オーダータイプ</t>
   </si>
   <si>
     <t>常時ストレート確率アップ１％</t>
   </si>
   <si>
-    <t>ボーナス値</t>
-  </si>
-  <si>
-    <t>Passive</t>
+    <t>FullHouse</t>
   </si>
   <si>
     <t>実装可能</t>
   </si>
   <si>
-    <t>パッシブ</t>
-  </si>
-  <si>
-    <t>オーダータイプ</t>
+    <t>FourCard</t>
   </si>
   <si>
     <t>倍率</t>
   </si>
   <si>
-    <t>NoPair</t>
-  </si>
-  <si>
     <t>回数</t>
   </si>
   <si>
+    <t>StraightFlush</t>
+  </si>
+  <si>
     <t>役タイプ</t>
   </si>
   <si>
-    <t>SealSkill</t>
-  </si>
-  <si>
     <t>継続倍率</t>
   </si>
   <si>
-    <t>Color</t>
-  </si>
-  <si>
     <t>対象スキル</t>
   </si>
   <si>
+    <t>RoyalStraightFlush</t>
+  </si>
+  <si>
+    <t>常時ストレート確率アップ２％</t>
+  </si>
+  <si>
     <t>es00001</t>
   </si>
   <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>常時ストレート確率アップ２％</t>
+    <t>ワンペア</t>
   </si>
   <si>
     <t>パッシブスキル封じ</t>
   </si>
   <si>
-    <t>ProbabilityUp</t>
+    <t>１</t>
   </si>
   <si>
     <t>このターンだけパッシブスキルが無効化</t>
   </si>
   <si>
-    <t>ワンペア</t>
-  </si>
-  <si>
-    <t>１</t>
-  </si>
-  <si>
-    <t>確率アップ</t>
-  </si>
-  <si>
-    <t>OnePair</t>
-  </si>
-  <si>
-    <t>Killer</t>
-  </si>
-  <si>
-    <t>Hand</t>
-  </si>
-  <si>
     <t>常時ストレート確率アップ４％</t>
   </si>
   <si>
-    <t>Red</t>
-  </si>
-  <si>
     <t>ツーペア</t>
   </si>
   <si>
-    <t>Bet</t>
-  </si>
-  <si>
-    <t>追加賭け</t>
-  </si>
-  <si>
     <t>常時ストレート確率アップ８％</t>
   </si>
   <si>
-    <t>TwoPair</t>
-  </si>
-  <si>
-    <t>ForceContinue</t>
-  </si>
-  <si>
     <t>スリーカード</t>
   </si>
   <si>
-    <t>All</t>
-  </si>
-  <si>
     <t>２</t>
   </si>
   <si>
-    <t>AllBet</t>
-  </si>
-  <si>
-    <t>全て賭け(AllChange</t>
-  </si>
-  <si>
     <t>常時ストレート確率アップ10％</t>
   </si>
   <si>
-    <t>ThreeCard</t>
-  </si>
-  <si>
     <t>ストレート</t>
   </si>
   <si>
-    <t>ForceAllChange</t>
-  </si>
-  <si>
     <t>３</t>
   </si>
   <si>
-    <t>Magnification</t>
-  </si>
-  <si>
     <t>常時フラッシュ確率アップ１％</t>
   </si>
   <si>
-    <t>倍率up</t>
-  </si>
-  <si>
-    <t>Straight</t>
-  </si>
-  <si>
     <t>フラッシュ</t>
   </si>
   <si>
-    <t>Order</t>
-  </si>
-  <si>
     <t>４</t>
   </si>
   <si>
-    <t>Flush</t>
-  </si>
-  <si>
     <t>常時フラッシュ確率アップ２％</t>
   </si>
   <si>
-    <t>FullHouse</t>
-  </si>
-  <si>
     <t>フルハウス</t>
   </si>
   <si>
-    <t>FourCard</t>
-  </si>
-  <si>
     <t>７</t>
   </si>
   <si>
-    <t>StraightFlush</t>
-  </si>
-  <si>
-    <t>RoyalStraightFlush</t>
-  </si>
-  <si>
     <t>常時フラッシュ確率アップ４％</t>
   </si>
   <si>
@@ -274,94 +274,118 @@
     <t>常時フォーカード確率アップ３％</t>
   </si>
   <si>
+    <t>常時フォーカード確率アップ４％</t>
+  </si>
+  <si>
+    <t>常時ストレートフラッシュ確率アップ１％</t>
+  </si>
+  <si>
+    <t>常時ストレートフラッシュ確率アップ２％</t>
+  </si>
+  <si>
+    <t>常時ストレートフラッシュ確率アップ３％</t>
+  </si>
+  <si>
+    <t>以降</t>
+  </si>
+  <si>
+    <t>常時ロイヤルストレートフラッシュ確率アップ１％</t>
+  </si>
+  <si>
+    <t>常時ロイヤルストレートフラッシュ確率アップ２％</t>
+  </si>
+  <si>
+    <t>常時ワンペア継続</t>
+  </si>
+  <si>
+    <t>ストレート確率アップ１０％（継続２ターン目から使用可能）</t>
+  </si>
+  <si>
     <t>es00002</t>
   </si>
   <si>
     <t>倍率スキル封じ</t>
   </si>
   <si>
+    <t>ストレート確率アップ２０％（継続３ターン目から使用可能）</t>
+  </si>
+  <si>
     <t>このターンだけ倍率スキルが使用不可</t>
   </si>
   <si>
-    <t>常時フォーカード確率アップ４％</t>
-  </si>
-  <si>
-    <t>常時ストレートフラッシュ確率アップ１％</t>
-  </si>
-  <si>
-    <t>常時ストレートフラッシュ確率アップ２％</t>
-  </si>
-  <si>
-    <t>常時ストレートフラッシュ確率アップ３％</t>
-  </si>
-  <si>
-    <t>以降</t>
-  </si>
-  <si>
-    <t>常時ロイヤルストレートフラッシュ確率アップ１％</t>
-  </si>
-  <si>
-    <t>常時ロイヤルストレートフラッシュ確率アップ２％</t>
+    <t>ストレート確率アップ３０％（継続４ターン目から使用可能）</t>
+  </si>
+  <si>
+    <t>ストレート確率アップ４０％（継続５ターン目から使用可能）</t>
+  </si>
+  <si>
+    <t>ストレート確率アップ５０％（継続６ターン目から使用可能）</t>
+  </si>
+  <si>
+    <t>フラッシュ確率アップ１０％（継続３ターン目から使用可能）</t>
+  </si>
+  <si>
+    <t>フラッシュ確率アップ２０％（継続４ターン目から使用可能）</t>
+  </si>
+  <si>
+    <t>フラッシュ確率アップ３０％（継続５ターン目から使用可能）</t>
+  </si>
+  <si>
+    <t>フラッシュ確率アップ４０％（継続６ターン目から使用可能）</t>
+  </si>
+  <si>
+    <t>フラッシュ確率アップ５０％（継続７ターン目から使用可能）</t>
+  </si>
+  <si>
+    <t>フルハウス確率アップ１０％（継続４ターン目から使用可能）</t>
+  </si>
+  <si>
+    <t>フルハウス確率アップ２０％（継続５ターン目から使用可能）</t>
+  </si>
+  <si>
+    <t>フルハウス確率アップ３０％（継続６ターン目から使用可能）</t>
+  </si>
+  <si>
+    <t>フルハウス確率アップ４０％（継続７ターン目から使用可能）</t>
+  </si>
+  <si>
+    <t>フルハウス確率アップ４５％（継続８ターン目から使用可能）</t>
   </si>
   <si>
     <t>es00003</t>
   </si>
   <si>
-    <t>常時ワンペア継続</t>
-  </si>
-  <si>
     <t>確率アップスキル封じ</t>
   </si>
   <si>
-    <t>ストレート確率アップ１０％（継続２ターン目から使用可能）</t>
-  </si>
-  <si>
-    <t>ストレート確率アップ２０％（継続３ターン目から使用可能）</t>
-  </si>
-  <si>
-    <t>ストレート確率アップ３０％（継続４ターン目から使用可能）</t>
-  </si>
-  <si>
-    <t>ストレート確率アップ４０％（継続５ターン目から使用可能）</t>
-  </si>
-  <si>
-    <t>ストレート確率アップ５０％（継続６ターン目から使用可能）</t>
-  </si>
-  <si>
-    <t>フラッシュ確率アップ１０％（継続３ターン目から使用可能）</t>
-  </si>
-  <si>
-    <t>フラッシュ確率アップ２０％（継続４ターン目から使用可能）</t>
-  </si>
-  <si>
-    <t>フラッシュ確率アップ３０％（継続５ターン目から使用可能）</t>
+    <t>フォーカード確率アップ１０％（継続５ターン目から使用可能）</t>
   </si>
   <si>
     <t>このターンだけ確率アップスキルが使用不可</t>
   </si>
   <si>
-    <t>フラッシュ確率アップ４０％（継続６ターン目から使用可能）</t>
-  </si>
-  <si>
-    <t>フラッシュ確率アップ５０％（継続７ターン目から使用可能）</t>
-  </si>
-  <si>
-    <t>フルハウス確率アップ１０％（継続４ターン目から使用可能）</t>
-  </si>
-  <si>
-    <t>フルハウス確率アップ２０％（継続５ターン目から使用可能）</t>
-  </si>
-  <si>
-    <t>フルハウス確率アップ３０％（継続６ターン目から使用可能）</t>
-  </si>
-  <si>
-    <t>フルハウス確率アップ４０％（継続７ターン目から使用可能）</t>
-  </si>
-  <si>
-    <t>フルハウス確率アップ４５％（継続８ターン目から使用可能）</t>
-  </si>
-  <si>
-    <t>フォーカード確率アップ１０％（継続５ターン目から使用可能）</t>
+    <t>フォーカード確率アップ１５％（継続６ターン目から使用可能）</t>
+  </si>
+  <si>
+    <t>フォーカード確率アップ２０％（継続７ターン目から使用可能）</t>
+  </si>
+  <si>
+    <t>フォーカード確率アップ２５％（継続８ターン目から使用可能）</t>
+  </si>
+  <si>
+    <t>フォーカード確率アップ３０％（継続９ターン目から使用可能）</t>
+  </si>
+  <si>
+    <t>ストレートフラッシュ確率アップ１０％（継続６ターン目から使用可能）</t>
+  </si>
+  <si>
+    <t>ストレートフラッシュ確率アップ１２％（継続７ターン目から使用可能）</t>
+  </si>
+  <si>
+    <t>ストレートフラッシュ確率アップ１４％（継続８ターン目から使用可能）</t>
+  </si>
+  <si>
+    <t>ストレートフラッシュ確率アップ１６％（継続９ターン目から使用可能）</t>
   </si>
   <si>
     <t>es00004</t>
@@ -370,43 +394,46 @@
     <t>7Killer</t>
   </si>
   <si>
-    <t>フォーカード確率アップ１５％（継続６ターン目から使用可能）</t>
+    <t>ストレートフラッシュ確率アップ２０％（継続１０ターン目から使用可能）</t>
   </si>
   <si>
     <t>7のトランプがすべて排除される</t>
   </si>
   <si>
-    <t>フォーカード確率アップ２０％（継続７ターン目から使用可能）</t>
-  </si>
-  <si>
-    <t>フォーカード確率アップ２５％（継続８ターン目から使用可能）</t>
-  </si>
-  <si>
-    <t>フォーカード確率アップ３０％（継続９ターン目から使用可能）</t>
-  </si>
-  <si>
-    <t>ストレートフラッシュ確率アップ１０％（継続６ターン目から使用可能）</t>
-  </si>
-  <si>
-    <t>ストレートフラッシュ確率アップ１２％（継続７ターン目から使用可能）</t>
-  </si>
-  <si>
-    <t>ストレートフラッシュ確率アップ１４％（継続８ターン目から使用可能）</t>
-  </si>
-  <si>
-    <t>ストレートフラッシュ確率アップ１６％（継続９ターン目から使用可能）</t>
-  </si>
-  <si>
-    <t>ストレートフラッシュ確率アップ２０％（継続１０ターン目から使用可能）</t>
-  </si>
-  <si>
     <t>Bet系</t>
   </si>
   <si>
+    <t>追加１００コイン（任意タイミング）</t>
+  </si>
+  <si>
+    <t>追加５００コイン（任意タイミング）</t>
+  </si>
+  <si>
+    <t>追加１０００コイン（任意タイミング）</t>
+  </si>
+  <si>
+    <t>追加１００００コイン（任意タイミング）</t>
+  </si>
+  <si>
+    <t>追加１０００００コイン（任意タイミング）</t>
+  </si>
+  <si>
+    <t>追加１００００００コイン（任意タイミング）</t>
+  </si>
+  <si>
+    <t>全額ベット（任意：使用後強制オールチェンジ）</t>
+  </si>
+  <si>
+    <t>倍率系</t>
+  </si>
+  <si>
+    <t>倍率２倍（継続２ターン目から使用可能：一回のみ倍率が２倍：強制オールチェンジ）</t>
+  </si>
+  <si>
     <t>es00005</t>
   </si>
   <si>
-    <t>追加１００コイン（任意タイミング）</t>
+    <t>倍率３倍（継続４ターン目から使用可能：一回のみ倍率が３倍：強制オールチェンジ）</t>
   </si>
   <si>
     <t>DownKiller</t>
@@ -415,82 +442,64 @@
     <t>継続強制!</t>
   </si>
   <si>
-    <t>追加５００コイン（任意タイミング）</t>
-  </si>
-  <si>
-    <t>追加１０００コイン（任意タイミング）</t>
-  </si>
-  <si>
-    <t>追加１００００コイン（任意タイミング）</t>
-  </si>
-  <si>
-    <t>追加１０００００コイン（任意タイミング）</t>
-  </si>
-  <si>
-    <t>追加１００００００コイン（任意タイミング）</t>
-  </si>
-  <si>
-    <t>全額ベット（任意：使用後強制オールチェンジ）</t>
-  </si>
-  <si>
-    <t>倍率系</t>
-  </si>
-  <si>
-    <t>倍率２倍（継続２ターン目から使用可能：一回のみ倍率が２倍：強制オールチェンジ）</t>
-  </si>
-  <si>
-    <t>倍率３倍（継続４ターン目から使用可能：一回のみ倍率が３倍：強制オールチェンジ）</t>
-  </si>
-  <si>
     <t>倍率４倍（継続６ターン目から使用可能：一回のみ倍率が４倍：強制オールチェンジ）</t>
   </si>
   <si>
     <t>倍率５倍（継続１０ターン目から使用可能：1回のみ倍率が５倍：強制オールチェンジ）</t>
   </si>
   <si>
+    <t>スキル形式</t>
+  </si>
+  <si>
+    <t>効果量</t>
+  </si>
+  <si>
+    <t>クールタイム</t>
+  </si>
+  <si>
+    <t>ディーラースキル</t>
+  </si>
+  <si>
+    <t>パッシブスキル封じ（そのターン、プレイヤーのパッシブスキル使用不可）</t>
+  </si>
+  <si>
+    <t>s00001</t>
+  </si>
+  <si>
+    <t>常時ストレート確率アップ1%</t>
+  </si>
+  <si>
+    <t>＊フローの変更が必要</t>
+  </si>
+  <si>
+    <t>配布時にストレートが成立している確率が1%upする</t>
+  </si>
+  <si>
+    <t>倍率封じ（そのターン、プレイヤーの倍率を操作するスキルが使用不可）</t>
+  </si>
+  <si>
+    <t>スキル封じ（そのターン、プレイヤーのスキルが使用不可）</t>
+  </si>
+  <si>
+    <t>７Killer（７のカードを全排除）</t>
+  </si>
+  <si>
+    <t>DownKiller(次のターン、プレイヤーは降りられなくなる：強制継続）</t>
+  </si>
+  <si>
+    <t>強制オールチェンジ（使用ターン、倍率が1.5倍）</t>
+  </si>
+  <si>
     <t>es00006</t>
   </si>
   <si>
+    <t>カラーオーダー（指定された色が含まれた状態でプレイヤーが上がると倍率が1.5倍）</t>
+  </si>
+  <si>
     <t>強制AllChange</t>
   </si>
   <si>
-    <t>ディーラースキル</t>
-  </si>
-  <si>
     <t>強制的に全てチェンジされる(倍率1.5倍)</t>
-  </si>
-  <si>
-    <t>パッシブスキル封じ（そのターン、プレイヤーのパッシブスキル使用不可）</t>
-  </si>
-  <si>
-    <t>＊フローの変更が必要</t>
-  </si>
-  <si>
-    <t>倍率封じ（そのターン、プレイヤーの倍率を操作するスキルが使用不可）</t>
-  </si>
-  <si>
-    <t>スキル封じ（そのターン、プレイヤーのスキルが使用不可）</t>
-  </si>
-  <si>
-    <t>７Killer（７のカードを全排除）</t>
-  </si>
-  <si>
-    <t>DownKiller(次のターン、プレイヤーは降りられなくなる：強制継続）</t>
-  </si>
-  <si>
-    <t>es00007</t>
-  </si>
-  <si>
-    <t>カラーオーダー 黒</t>
-  </si>
-  <si>
-    <t>黒を含むトランプで役を作れば倍率1.5倍</t>
-  </si>
-  <si>
-    <t>強制オールチェンジ（使用ターン、倍率が1.5倍）</t>
-  </si>
-  <si>
-    <t>カラーオーダー（指定された色が含まれた状態でプレイヤーが上がると倍率が1.5倍）</t>
   </si>
   <si>
     <t>役オーダー（指定された役でプレイヤーが上がると倍率が２倍）</t>
@@ -500,19 +509,40 @@
 ：可能であればユーザーが受けるかどうかの任意ダイアログ選択）</t>
   </si>
   <si>
-    <t>スキル形式</t>
-  </si>
-  <si>
-    <t>効果量</t>
-  </si>
-  <si>
-    <t>クールタイム</t>
-  </si>
-  <si>
-    <t>s00001</t>
-  </si>
-  <si>
-    <t>常時ストレート確率アップ1%</t>
+    <t>s00002</t>
+  </si>
+  <si>
+    <t>常時ストレート確率アップ2%</t>
+  </si>
+  <si>
+    <t>配布時にストレートが成立している確率が2%upする</t>
+  </si>
+  <si>
+    <t>s00003</t>
+  </si>
+  <si>
+    <t>es00007</t>
+  </si>
+  <si>
+    <t>常時ストレート確率アップ4%</t>
+  </si>
+  <si>
+    <t>カラーオーダー 黒</t>
+  </si>
+  <si>
+    <t>配布時にストレートが成立している確率が4%upする</t>
+  </si>
+  <si>
+    <t>黒を含むトランプで役を作れば倍率1.5倍</t>
+  </si>
+  <si>
+    <t>s00004</t>
+  </si>
+  <si>
+    <t>常時ストレート確率アップ8%</t>
+  </si>
+  <si>
+    <t>配布時にストレートが成立している確率が8%upする</t>
   </si>
   <si>
     <t>es00008</t>
@@ -521,12 +551,27 @@
     <t>カラーオーダー 赤</t>
   </si>
   <si>
-    <t>配布時にストレートが成立している確率が1%upする</t>
-  </si>
-  <si>
     <t>赤を含むトランプで役を作れば倍率1.5倍</t>
   </si>
   <si>
+    <t>s00005</t>
+  </si>
+  <si>
+    <t>常時ストレート確率アップ10%</t>
+  </si>
+  <si>
+    <t>配布時にストレートが成立している確率が10%upする</t>
+  </si>
+  <si>
+    <t>s00006</t>
+  </si>
+  <si>
+    <t>常時フラッシュ確率アップ1%</t>
+  </si>
+  <si>
+    <t>配布時にフラッシュが成立している確率が1%upする</t>
+  </si>
+  <si>
     <t>es00009</t>
   </si>
   <si>
@@ -536,13 +581,13 @@
     <t>ツーペアで役を作れば倍率2倍</t>
   </si>
   <si>
-    <t>s00002</t>
-  </si>
-  <si>
-    <t>常時ストレート確率アップ2%</t>
-  </si>
-  <si>
-    <t>配布時にストレートが成立している確率が2%upする</t>
+    <t>s00007</t>
+  </si>
+  <si>
+    <t>常時フラッシュ確率アップ2%</t>
+  </si>
+  <si>
+    <t>配布時にフラッシュが成立している確率が2%upする</t>
   </si>
   <si>
     <t>es00010</t>
@@ -551,127 +596,82 @@
     <t>スリーカードで役を作れば倍率2倍</t>
   </si>
   <si>
-    <t>s00003</t>
-  </si>
-  <si>
-    <t>常時ストレート確率アップ4%</t>
-  </si>
-  <si>
-    <t>配布時にストレートが成立している確率が4%upする</t>
+    <t>s00008</t>
+  </si>
+  <si>
+    <t>常時フラッシュ確率アップ4%</t>
+  </si>
+  <si>
+    <t>配布時にフラッシュが成立している確率が4%upする</t>
+  </si>
+  <si>
+    <t>s00009</t>
+  </si>
+  <si>
+    <t>常時フラッシュ確率アップ8%</t>
+  </si>
+  <si>
+    <t>配布時にフラッシュが成立している確率が8%upする</t>
   </si>
   <si>
     <t>es00011</t>
   </si>
   <si>
-    <t>s00004</t>
-  </si>
-  <si>
-    <t>常時ストレート確率アップ8%</t>
-  </si>
-  <si>
     <t>ストレートで役を作れば倍率2倍</t>
   </si>
   <si>
-    <t>配布時にストレートが成立している確率が8%upする</t>
-  </si>
-  <si>
-    <t>s00005</t>
-  </si>
-  <si>
-    <t>常時ストレート確率アップ10%</t>
-  </si>
-  <si>
-    <t>配布時にストレートが成立している確率が10%upする</t>
+    <t>s00010</t>
+  </si>
+  <si>
+    <t>常時フラッシュ確率アップ10%</t>
+  </si>
+  <si>
+    <t>配布時にフラッシュが成立している確率が10%upする</t>
+  </si>
+  <si>
+    <t>s00011</t>
+  </si>
+  <si>
+    <t>常時フルハウス確率アップ1%</t>
+  </si>
+  <si>
+    <t>配布時にフルハウスが成立している確率が1%upする</t>
   </si>
   <si>
     <t>es00012</t>
   </si>
   <si>
+    <t>s00012</t>
+  </si>
+  <si>
     <t>フラッシュで役を作れば倍率2倍</t>
   </si>
   <si>
+    <t>常時フルハウス確率アップ2%</t>
+  </si>
+  <si>
+    <t>配布時にフルハウスが成立している確率が2%upする</t>
+  </si>
+  <si>
+    <t>s00013</t>
+  </si>
+  <si>
+    <t>常時フルハウス確率アップ3%</t>
+  </si>
+  <si>
+    <t>配布時にフルハウスが成立している確率が3%upする</t>
+  </si>
+  <si>
     <t>es00013</t>
   </si>
   <si>
     <t>フルハウスで役を作れば倍率2倍</t>
   </si>
   <si>
-    <t>s00006</t>
-  </si>
-  <si>
-    <t>常時フラッシュ確率アップ１%</t>
-  </si>
-  <si>
-    <t>配布時にフラッシュが成立している確率が1%upする</t>
-  </si>
-  <si>
-    <t>s00007</t>
-  </si>
-  <si>
-    <t>常時フラッシュ確率アップ２%</t>
-  </si>
-  <si>
-    <t>配布時にフラッシュが成立している確率が2%upする</t>
-  </si>
-  <si>
-    <t>s00008</t>
-  </si>
-  <si>
-    <t>常時フラッシュ確率アップ４%</t>
-  </si>
-  <si>
-    <t>配布時にフラッシュが成立している確率が4%upする</t>
-  </si>
-  <si>
-    <t>s00009</t>
-  </si>
-  <si>
-    <t>常時フラッシュ確率アップ８%</t>
-  </si>
-  <si>
-    <t>配布時にフラッシュが成立している確率が8%upする</t>
-  </si>
-  <si>
-    <t>s00010</t>
-  </si>
-  <si>
-    <t>常時フラッシュ確率アップ10%</t>
-  </si>
-  <si>
-    <t>配布時にフラッシュが成立している確率が10%upする</t>
-  </si>
-  <si>
-    <t>s00011</t>
-  </si>
-  <si>
-    <t>常時フルハウス確率アップ１%</t>
-  </si>
-  <si>
-    <t>配布時にフルハウスが成立している確率が1%upする</t>
-  </si>
-  <si>
-    <t>s00012</t>
-  </si>
-  <si>
-    <t>常時フルハウス確率アップ２%</t>
-  </si>
-  <si>
-    <t>配布時にフルハウスが成立している確率が2%upする</t>
-  </si>
-  <si>
-    <t>s00013</t>
-  </si>
-  <si>
-    <t>常時フルハウス確率アップ３%</t>
-  </si>
-  <si>
-    <t>配布時にフルハウスが成立している確率が3%upする</t>
-  </si>
-  <si>
     <t>s00014</t>
   </si>
   <si>
-    <t>常時フルハウス確率アップ４%</t>
+    <t>常時フルハウス確率アップ4%</t>
   </si>
   <si>
     <t>配布時にフルハウスが成立している確率が4%upする</t>
@@ -680,7 +680,7 @@
     <t>s00015</t>
   </si>
   <si>
-    <t>常時フルハウス確率アップ５%</t>
+    <t>常時フルハウス確率アップ5%</t>
   </si>
   <si>
     <t>配布時にフルハウスが成立している確率が5%upする</t>
@@ -689,7 +689,7 @@
     <t>s00016</t>
   </si>
   <si>
-    <t>常時フォーカード確率アップ１%</t>
+    <t>常時フォーカード確率アップ1%</t>
   </si>
   <si>
     <t>配布時にフォーカードが成立している確率が1%upする</t>
@@ -698,7 +698,7 @@
     <t>s00017</t>
   </si>
   <si>
-    <t>常時フォーカード確率アップ２%</t>
+    <t>常時フォーカード確率アップ2%</t>
   </si>
   <si>
     <t>配布時にフォーカードが成立している確率が2%upする</t>
@@ -707,7 +707,7 @@
     <t>s00018</t>
   </si>
   <si>
-    <t>常時フォーカード確率アップ３%</t>
+    <t>常時フォーカード確率アップ3%</t>
   </si>
   <si>
     <t>配布時にフォーカードが成立している確率が3%upする</t>
@@ -716,7 +716,7 @@
     <t>s00019</t>
   </si>
   <si>
-    <t>常時フォーカード確率アップ４%</t>
+    <t>常時フォーカード確率アップ4%</t>
   </si>
   <si>
     <t>配布時にフォーカードが成立している確率が4%upする</t>
@@ -725,7 +725,7 @@
     <t>s00020</t>
   </si>
   <si>
-    <t>常時ストレートフラッシュ確率アップ１%</t>
+    <t>常時ストレートフラッシュ確率アップ1%</t>
   </si>
   <si>
     <t>配布時にストレートフラッシュが成立している確率が1%upする</t>
@@ -734,7 +734,7 @@
     <t>s00021</t>
   </si>
   <si>
-    <t>常時ストレートフラッシュ確率アップ２%</t>
+    <t>常時ストレートフラッシュ確率アップ2%</t>
   </si>
   <si>
     <t>配布時にストレートフラッシュが成立している確率が2%upする</t>
@@ -743,7 +743,7 @@
     <t>s00022</t>
   </si>
   <si>
-    <t>常時ストレートフラッシュ確率アップ３%</t>
+    <t>常時ストレートフラッシュ確率アップ3%</t>
   </si>
   <si>
     <t>配布時にストレートフラッシュが成立している確率が3%upする</t>
@@ -752,7 +752,7 @@
     <t>s00023</t>
   </si>
   <si>
-    <t>常時ロイヤルストレートフラッシュ確率アップ１%</t>
+    <t>常時ロイヤルストレートフラッシュ確率アップ1%</t>
   </si>
   <si>
     <t>配布時にロイヤルストレートフラッシュが成立している確率が1%upする</t>
@@ -761,7 +761,7 @@
     <t>s00024</t>
   </si>
   <si>
-    <t>常時ロイヤルストレートフラッシュ確率アップ２%</t>
+    <t>常時ロイヤルストレートフラッシュ確率アップ2%</t>
   </si>
   <si>
     <t>配布時にロイヤルストレートフラッシュが成立している確率が2%upする</t>
@@ -1189,125 +1189,125 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
       <c r="C9" s="1" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
       <c r="C10" s="1" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" s="1" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1328,41 +1328,41 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="F3" s="1">
         <v>1.0</v>
@@ -1373,16 +1373,16 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="F4" s="1">
         <v>2.0</v>
@@ -1393,16 +1393,16 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="F5" s="1">
         <v>3.0</v>
@@ -1413,16 +1413,16 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F6" s="1">
         <v>4.0</v>
@@ -1433,16 +1433,16 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F7" s="1">
         <v>5.0</v>
@@ -1453,16 +1453,16 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F8" s="1">
         <v>6.0</v>
@@ -1476,7 +1476,7 @@
         <v>69</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>70</v>
@@ -1496,7 +1496,7 @@
         <v>72</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>73</v>
@@ -1516,7 +1516,7 @@
         <v>75</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>76</v>
@@ -1536,7 +1536,7 @@
         <v>78</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F12" s="1">
         <v>10.0</v>
@@ -1550,7 +1550,7 @@
         <v>79</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F13" s="1">
         <v>11.0</v>
@@ -1564,7 +1564,7 @@
         <v>80</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F14" s="1">
         <v>12.0</v>
@@ -1578,7 +1578,7 @@
         <v>81</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F15" s="1">
         <v>13.0</v>
@@ -1592,7 +1592,7 @@
         <v>82</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F16" s="1">
         <v>14.0</v>
@@ -1606,7 +1606,7 @@
         <v>83</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F17" s="1">
         <v>15.0</v>
@@ -1620,7 +1620,7 @@
         <v>84</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F18" s="1">
         <v>16.0</v>
@@ -1634,7 +1634,7 @@
         <v>85</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F19" s="1">
         <v>17.0</v>
@@ -1645,10 +1645,10 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F20" s="1">
         <v>18.0</v>
@@ -1659,10 +1659,10 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F21" s="1">
         <v>19.0</v>
@@ -1673,10 +1673,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F22" s="1">
         <v>20.0</v>
@@ -1687,13 +1687,13 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G23" s="1">
         <v>5.0</v>
@@ -1701,224 +1701,224 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B26" s="1"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53">
@@ -1928,67 +1928,67 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65">
@@ -1996,7 +1996,7 @@
         <v>142</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66">
@@ -2004,12 +2004,12 @@
         <v>143</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="69">
@@ -2017,45 +2017,45 @@
         <v>148</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74">
@@ -2063,31 +2063,31 @@
         <v>157</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2109,304 +2109,304 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="J1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D2" s="1">
         <v>0.0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D3" s="1">
         <v>0.0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D4" s="1">
         <v>0.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="D5" s="1">
         <v>7.0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="D7" s="1">
         <v>1.5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="D8" s="1">
         <v>1.5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="D9" s="1">
         <v>1.5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="D10" s="1">
         <v>2.0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="D11" s="1">
         <v>2.0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="D12" s="1">
         <v>2.0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="D13" s="1">
         <v>2.0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="D14" s="1">
         <v>2.0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2444,22 +2444,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -2467,16 +2467,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1">
         <v>1.0</v>
@@ -2485,21 +2485,21 @@
         <v>0.0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1">
         <v>2.0</v>
@@ -2508,21 +2508,21 @@
         <v>0.0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1">
         <v>4.0</v>
@@ -2531,21 +2531,21 @@
         <v>0.0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E5" s="1">
         <v>8.0</v>
@@ -2554,21 +2554,21 @@
         <v>0.0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E6" s="1">
         <v>10.0</v>
@@ -2577,21 +2577,21 @@
         <v>0.0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E7" s="1">
         <v>1.0</v>
@@ -2600,21 +2600,21 @@
         <v>0.0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E8" s="1">
         <v>2.0</v>
@@ -2623,21 +2623,21 @@
         <v>0.0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E9" s="1">
         <v>4.0</v>
@@ -2646,21 +2646,21 @@
         <v>0.0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E10" s="1">
         <v>8.0</v>
@@ -2669,21 +2669,21 @@
         <v>0.0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E11" s="1">
         <v>10.0</v>
@@ -2692,21 +2692,21 @@
         <v>0.0</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E12" s="1">
         <v>1.0</v>
@@ -2715,21 +2715,21 @@
         <v>0.0</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>213</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E13" s="1">
         <v>2.0</v>
@@ -2738,21 +2738,21 @@
         <v>0.0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E14" s="1">
         <v>3.0</v>
@@ -2761,7 +2761,7 @@
         <v>0.0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15">
@@ -2775,7 +2775,7 @@
         <v>219</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E15" s="1">
         <v>4.0</v>
@@ -2784,7 +2784,7 @@
         <v>0.0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16">
@@ -2798,7 +2798,7 @@
         <v>222</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E16" s="1">
         <v>5.0</v>
@@ -2807,7 +2807,7 @@
         <v>0.0</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17">
@@ -2821,7 +2821,7 @@
         <v>225</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E17" s="1">
         <v>1.0</v>
@@ -2830,7 +2830,7 @@
         <v>0.0</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18">
@@ -2844,7 +2844,7 @@
         <v>228</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E18" s="1">
         <v>2.0</v>
@@ -2853,7 +2853,7 @@
         <v>0.0</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19">
@@ -2867,7 +2867,7 @@
         <v>231</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E19" s="1">
         <v>3.0</v>
@@ -2876,7 +2876,7 @@
         <v>0.0</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
@@ -2890,7 +2890,7 @@
         <v>234</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E20" s="1">
         <v>4.0</v>
@@ -2899,7 +2899,7 @@
         <v>0.0</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21">
@@ -2913,7 +2913,7 @@
         <v>237</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E21" s="1">
         <v>1.0</v>
@@ -2922,7 +2922,7 @@
         <v>0.0</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22">
@@ -2936,7 +2936,7 @@
         <v>240</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E22" s="1">
         <v>2.0</v>
@@ -2945,7 +2945,7 @@
         <v>0.0</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
@@ -2959,7 +2959,7 @@
         <v>243</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E23" s="1">
         <v>3.0</v>
@@ -2968,7 +2968,7 @@
         <v>0.0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
@@ -2982,7 +2982,7 @@
         <v>246</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E24" s="1">
         <v>1.0</v>
@@ -2991,7 +2991,7 @@
         <v>0.0</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25">
@@ -3005,7 +3005,7 @@
         <v>249</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E25" s="1">
         <v>2.0</v>
@@ -3014,7 +3014,7 @@
         <v>0.0</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26">
@@ -3028,7 +3028,7 @@
         <v>252</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E26" s="1">
         <v>10.0</v>
@@ -3037,7 +3037,7 @@
         <v>2.0</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
@@ -3051,7 +3051,7 @@
         <v>255</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E27" s="1">
         <v>20.0</v>
@@ -3060,7 +3060,7 @@
         <v>3.0</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28">
@@ -3074,7 +3074,7 @@
         <v>258</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E28" s="1">
         <v>30.0</v>
@@ -3083,7 +3083,7 @@
         <v>4.0</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29">
@@ -3097,7 +3097,7 @@
         <v>261</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E29" s="1">
         <v>40.0</v>
@@ -3106,7 +3106,7 @@
         <v>5.0</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
@@ -3120,7 +3120,7 @@
         <v>264</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E30" s="1">
         <v>50.0</v>
@@ -3129,7 +3129,7 @@
         <v>6.0</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
@@ -3143,7 +3143,7 @@
         <v>267</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E31" s="1">
         <v>10.0</v>
@@ -3152,7 +3152,7 @@
         <v>3.0</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32">
@@ -3166,7 +3166,7 @@
         <v>270</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E32" s="1">
         <v>20.0</v>
@@ -3175,7 +3175,7 @@
         <v>4.0</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33">
@@ -3189,7 +3189,7 @@
         <v>273</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E33" s="1">
         <v>30.0</v>
@@ -3198,7 +3198,7 @@
         <v>5.0</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34">
@@ -3212,7 +3212,7 @@
         <v>276</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E34" s="1">
         <v>40.0</v>
@@ -3221,7 +3221,7 @@
         <v>6.0</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35">
@@ -3235,7 +3235,7 @@
         <v>279</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E35" s="1">
         <v>50.0</v>
@@ -3244,7 +3244,7 @@
         <v>7.0</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36">
@@ -3258,7 +3258,7 @@
         <v>282</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E36" s="1">
         <v>10.0</v>
@@ -3267,7 +3267,7 @@
         <v>4.0</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37">
@@ -3281,7 +3281,7 @@
         <v>285</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E37" s="1">
         <v>20.0</v>
@@ -3290,7 +3290,7 @@
         <v>5.0</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38">
@@ -3304,7 +3304,7 @@
         <v>288</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E38" s="1">
         <v>30.0</v>
@@ -3313,7 +3313,7 @@
         <v>6.0</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39">
@@ -3327,7 +3327,7 @@
         <v>291</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E39" s="1">
         <v>40.0</v>
@@ -3336,7 +3336,7 @@
         <v>7.0</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40">
@@ -3350,7 +3350,7 @@
         <v>294</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E40" s="1">
         <v>45.0</v>
@@ -3359,7 +3359,7 @@
         <v>8.0</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41">
@@ -3373,7 +3373,7 @@
         <v>297</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E41" s="1">
         <v>10.0</v>
@@ -3382,7 +3382,7 @@
         <v>5.0</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42">
@@ -3396,7 +3396,7 @@
         <v>300</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E42" s="1">
         <v>15.0</v>
@@ -3405,7 +3405,7 @@
         <v>6.0</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43">
@@ -3419,7 +3419,7 @@
         <v>303</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E43" s="1">
         <v>20.0</v>
@@ -3428,7 +3428,7 @@
         <v>7.0</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44">
@@ -3442,7 +3442,7 @@
         <v>306</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E44" s="1">
         <v>25.0</v>
@@ -3451,7 +3451,7 @@
         <v>8.0</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45">
@@ -3465,7 +3465,7 @@
         <v>309</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E45" s="1">
         <v>30.0</v>
@@ -3474,7 +3474,7 @@
         <v>9.0</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46">
@@ -3488,7 +3488,7 @@
         <v>312</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E46" s="1">
         <v>10.0</v>
@@ -3497,7 +3497,7 @@
         <v>6.0</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47">
@@ -3511,7 +3511,7 @@
         <v>315</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E47" s="1">
         <v>12.0</v>
@@ -3520,7 +3520,7 @@
         <v>7.0</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48">
@@ -3534,7 +3534,7 @@
         <v>318</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E48" s="1">
         <v>14.0</v>
@@ -3543,7 +3543,7 @@
         <v>8.0</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49">
@@ -3557,7 +3557,7 @@
         <v>321</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E49" s="1">
         <v>16.0</v>
@@ -3566,7 +3566,7 @@
         <v>9.0</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50">
@@ -3580,7 +3580,7 @@
         <v>324</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E50" s="1">
         <v>20.0</v>
@@ -3589,7 +3589,7 @@
         <v>10.0</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51">
@@ -3603,7 +3603,7 @@
         <v>327</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="E51" s="1">
         <v>2.0</v>
@@ -3623,7 +3623,7 @@
         <v>330</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="E52" s="1">
         <v>3.0</v>
@@ -3643,7 +3643,7 @@
         <v>333</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="E53" s="1">
         <v>4.0</v>
@@ -3663,7 +3663,7 @@
         <v>336</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="E54" s="1">
         <v>5.0</v>
@@ -3683,7 +3683,7 @@
         <v>339</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E55" s="1">
         <v>100.0</v>
@@ -3703,7 +3703,7 @@
         <v>342</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E56" s="1">
         <v>500.0</v>
@@ -3723,7 +3723,7 @@
         <v>345</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E57" s="1">
         <v>1000.0</v>
@@ -3743,7 +3743,7 @@
         <v>348</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E58" s="1">
         <v>10000.0</v>
@@ -3763,7 +3763,7 @@
         <v>351</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E59" s="1">
         <v>100000.0</v>
@@ -3783,7 +3783,7 @@
         <v>354</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E60" s="1">
         <v>1000000.0</v>
@@ -3803,7 +3803,7 @@
         <v>357</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="F61" s="1">
         <v>0.0</v>
